--- a/results/consolidated/400_user_immediate_stock.xlsx
+++ b/results/consolidated/400_user_immediate_stock.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1000" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2300" yWindow="600" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
     <sheet name="Throughput" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -98,12 +98,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -142,7 +145,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -211,64 +213,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -283,66 +285,71 @@
                   <c:v>0.309</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.037</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.035</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.041</c:v>
+                  <c:v>4.1000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.037</c:v>
+                  <c:v>3.6999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.038</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.045</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.039</c:v>
+                  <c:v>3.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.036</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.032</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.033</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.0036</c:v>
+                  <c:v>3.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.034</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E03-6748-9056-806AD0BF1035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -377,64 +384,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,13 +453,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.525</c:v>
+                  <c:v>2.5249999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.482</c:v>
+                  <c:v>2.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.179</c:v>
+                  <c:v>2.1789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.391</c:v>
@@ -461,31 +468,31 @@
                   <c:v>1.208</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.963</c:v>
+                  <c:v>0.96299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.317</c:v>
+                  <c:v>1.3169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.619</c:v>
+                  <c:v>0.61899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.289</c:v>
+                  <c:v>0.28899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.345</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.413</c:v>
+                  <c:v>0.41299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.246</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.343</c:v>
+                  <c:v>0.34300000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0.105</c:v>
@@ -494,13 +501,13 @@
                   <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.257</c:v>
+                  <c:v>0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.071</c:v>
+                  <c:v>7.0999999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.18</c:v>
@@ -509,6 +516,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8E03-6748-9056-806AD0BF1035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -543,64 +555,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,22 +624,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>3.576</c:v>
+                  <c:v>3.5760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.537</c:v>
+                  <c:v>1.5369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.203</c:v>
+                  <c:v>0.20300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.233</c:v>
+                  <c:v>0.23300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.132</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.13</c:v>
@@ -636,16 +648,16 @@
                   <c:v>0.121</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.148</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.142</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.141</c:v>
+                  <c:v>0.14099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.125</c:v>
@@ -657,16 +669,16 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.095</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.138</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.117</c:v>
+                  <c:v>0.11700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0.1</c:v>
@@ -675,6 +687,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8E03-6748-9056-806AD0BF1035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -686,8 +703,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1363195440"/>
-        <c:axId val="1363197488"/>
+        <c:axId val="-1628987808"/>
+        <c:axId val="-1629284272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -725,64 +742,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -794,69 +811,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8E03-6748-9056-806AD0BF1035}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -868,11 +890,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1363204272"/>
-        <c:axId val="1363200880"/>
+        <c:axId val="-1629015936"/>
+        <c:axId val="-1629012688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1363195440"/>
+        <c:axId val="-1628987808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363197488"/>
+        <c:crossAx val="-1629284272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -923,7 +945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1363197488"/>
+        <c:axId val="-1629284272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +986,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average Response Time (ms)</a:t>
+                  <a:t>Average Response Time (seconds)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -999,6 +1020,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1029,12 +1051,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363195440"/>
+        <c:crossAx val="-1628987808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1363200880"/>
+        <c:axId val="-1629012688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1088,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1096,6 +1117,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1126,12 +1148,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1363204272"/>
+        <c:crossAx val="-1629015936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1363204272"/>
+        <c:axId val="-1629015936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1363200880"/>
+        <c:crossAx val="-1629012688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1158,7 +1180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1226,7 +1247,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +1286,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1334,64 +1354,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,16 +1423,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>295.0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>368.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>374.0</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366.133</c:v>
+                  <c:v>366.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>377.4</c:v>
@@ -1424,48 +1444,53 @@
                   <c:v>375.267</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>374.333</c:v>
+                  <c:v>374.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>375.267</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>374.133</c:v>
+                  <c:v>374.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>376.733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>369.667</c:v>
+                  <c:v>369.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>374.533</c:v>
+                  <c:v>374.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>377.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>357.0</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>386.333</c:v>
+                  <c:v>386.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>384.667</c:v>
+                  <c:v>384.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>378.267</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>376.067</c:v>
+                  <c:v>376.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>379.533</c:v>
+                  <c:v>379.53300000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1500,64 +1525,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,7 +1594,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>84.333</c:v>
+                  <c:v>84.332999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>115.467</c:v>
@@ -1581,57 +1606,62 @@
                   <c:v>118.467</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191.067</c:v>
+                  <c:v>191.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>192.467</c:v>
+                  <c:v>192.46700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>153.533</c:v>
+                  <c:v>153.53299999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>179.867</c:v>
+                  <c:v>179.86699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.467</c:v>
+                  <c:v>254.46700000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>309.0</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>262.533</c:v>
+                  <c:v>262.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>311.133</c:v>
+                  <c:v>311.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>307.6</c:v>
+                  <c:v>307.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>303.533</c:v>
+                  <c:v>303.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>360.933</c:v>
+                  <c:v>360.93299999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>340.667</c:v>
+                  <c:v>340.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320.4</c:v>
+                  <c:v>320.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>357.467</c:v>
+                  <c:v>357.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>368.4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>335.667</c:v>
+                  <c:v>335.66699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1666,64 +1696,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,69 +1765,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>54.133</c:v>
+                  <c:v>54.133000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.867</c:v>
+                  <c:v>204.86699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>304.333</c:v>
+                  <c:v>304.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>329.733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>333.0</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>349.867</c:v>
+                  <c:v>349.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>344.133</c:v>
+                  <c:v>344.13299999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336.667</c:v>
+                  <c:v>336.66699999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>335.067</c:v>
+                  <c:v>335.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>339.467</c:v>
+                  <c:v>339.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>335.867</c:v>
+                  <c:v>335.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>290.4</c:v>
+                  <c:v>290.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>343.333</c:v>
+                  <c:v>343.33300000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>334.067</c:v>
+                  <c:v>334.06700000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>361.533</c:v>
+                  <c:v>361.53300000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>357.467</c:v>
+                  <c:v>357.46699999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>334.867</c:v>
+                  <c:v>334.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>351.867</c:v>
+                  <c:v>351.86700000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>346.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>364.467</c:v>
+                  <c:v>364.46699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1809,8 +1844,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1881817280"/>
-        <c:axId val="1881873024"/>
+        <c:axId val="-1628912896"/>
+        <c:axId val="-1629368896"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1848,64 +1883,64 @@
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.000173611111111111</c:v>
+                  <c:v>1.7361111111111112E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.000347222222222222</c:v>
+                  <c:v>3.4722222222222224E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.000520833333333333</c:v>
+                  <c:v>5.2083333333333333E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000694444444444444</c:v>
+                  <c:v>6.9444444444444447E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.000868055555555555</c:v>
+                  <c:v>8.6805555555555562E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00104166666666667</c:v>
+                  <c:v>1.0416666666666667E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00121527777777778</c:v>
+                  <c:v>1.2152777777777778E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00138888888888889</c:v>
+                  <c:v>1.3888888888888889E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0015625</c:v>
+                  <c:v>1.5625000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00173611111111111</c:v>
+                  <c:v>1.7361111111111112E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00190972222222222</c:v>
+                  <c:v>1.9097222222222224E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00208333333333333</c:v>
+                  <c:v>2.0833333333333333E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00225694444444444</c:v>
+                  <c:v>2.2569444444444442E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00243055555555555</c:v>
+                  <c:v>2.4305555555555552E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00260416666666667</c:v>
+                  <c:v>2.6041666666666661E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00277777777777778</c:v>
+                  <c:v>2.777777777777777E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00295138888888889</c:v>
+                  <c:v>2.9513888888888879E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.003125</c:v>
+                  <c:v>3.1249999999999989E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.00329861111111111</c:v>
+                  <c:v>3.2986111111111098E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.00347222222222222</c:v>
+                  <c:v>3.4722222222222207E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1917,69 +1952,74 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400.0</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1991,11 +2031,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1881879776"/>
-        <c:axId val="1881612640"/>
+        <c:axId val="-1629362960"/>
+        <c:axId val="-1629366352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1881817280"/>
+        <c:axId val="-1628912896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2038,7 +2078,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881873024"/>
+        <c:crossAx val="-1629368896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2046,7 +2086,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1881873024"/>
+        <c:axId val="-1629368896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2097,7 +2137,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2158,12 +2197,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881817280"/>
+        <c:crossAx val="-1628912896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1881612640"/>
+        <c:axId val="-1629366352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2195,7 +2234,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2225,6 +2263,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2255,12 +2294,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1881879776"/>
+        <c:crossAx val="-1629362960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1881879776"/>
+        <c:axId val="-1629362960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1881612640"/>
+        <c:crossAx val="-1629366352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2287,7 +2326,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3483,7 +3521,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3518,7 +3562,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3803,15 +3853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4210,8 +4260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/results/consolidated/400_user_immediate_stock.xlsx
+++ b/results/consolidated/400_user_immediate_stock.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesrandall/Code/serverlessJsScalingComparison/results/consolidated/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDB6C58-37CA-7140-9AA8-88EDFE0FC35F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2300" yWindow="600" windowWidth="30880" windowHeight="19140" tabRatio="500"/>
+    <workbookView xWindow="2940" yWindow="460" windowWidth="30880" windowHeight="19140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -28,15 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
   <si>
     <t>AWS Lambda</t>
-  </si>
-  <si>
-    <t>Azure Functions</t>
   </si>
   <si>
     <t>Google Cloud Functions</t>
@@ -47,11 +45,17 @@
   <si>
     <t>Average Response Time</t>
   </si>
+  <si>
+    <t>Azure Functions (Jan 18)</t>
+  </si>
+  <si>
+    <t>Azure Functions (Mar 18)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -352,15 +356,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="4"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$D$2</c:f>
+              <c:f>Performance!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
+                  <c:v>Azure Functions (Mar 18)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -368,7 +372,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -448,69 +452,69 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$D$3:$D$22</c:f>
+              <c:f>Performance!$F$3:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.5249999999999999</c:v>
+                  <c:v>0.36299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4820000000000002</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1789999999999998</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.391</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.208</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.96299999999999997</c:v>
+                  <c:v>5.7000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.55</c:v>
+                  <c:v>4.4999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3169999999999999</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>2.1000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28899999999999998</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41299999999999998</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.246</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.34300000000000003</c:v>
+                  <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.105</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.158</c:v>
+                  <c:v>0.22500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.25700000000000001</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.121</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.0999999999999994E-2</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.18</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -518,7 +522,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8E03-6748-9056-806AD0BF1035}"/>
+              <c16:uniqueId val="{00000000-456F-6C48-BBF9-66C88100D7E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1281,6 +1285,976 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Performance - January 2018 vs March 2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.5249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.391</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.246</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.121</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-838C-454D-9A7C-D5F7400ABA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-838C-454D-9A7C-D5F7400ABA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1628987808"/>
+        <c:axId val="-1629284272"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Performance!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-838C-454D-9A7C-D5F7400ABA80}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1629015936"/>
+        <c:axId val="-1629012688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1628987808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1629284272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1629284272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Response Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1628987808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1629012688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1629015936"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-1629015936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1629012688"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Throughput</a:t>
             </a:r>
           </a:p>
@@ -1493,179 +2467,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Throughput!$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Azure Functions</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Throughput!$A$3:$A$22</c:f>
-              <c:numCache>
-                <c:formatCode>h:mm:ss</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1.7361111111111112E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4722222222222224E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.2083333333333333E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9444444444444447E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.6805555555555562E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0416666666666667E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2152777777777778E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3888888888888889E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5625000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7361111111111112E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.9097222222222224E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.0833333333333333E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.2569444444444442E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.4305555555555552E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6041666666666661E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.777777777777777E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.9513888888888879E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.1249999999999989E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.2986111111111098E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4722222222222207E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Throughput!$D$3:$D$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>84.332999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>115.467</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>127.533</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>118.467</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>191.06700000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>192.46700000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>153.53299999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>179.86699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>254.46700000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>262.53300000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>311.13299999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>307.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>303.53300000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>360.93299999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>340.66699999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>320.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>357.46699999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>368.4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>335.66699999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F0E9-3541-B0DE-9100C46693EB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Throughput!$E$2</c:f>
@@ -1831,6 +2634,177 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>288.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>396.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377.86700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>373.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>371.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392.86700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>392.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>382.267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>316.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>377.733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>384.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>368.46699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F45-9047-BE11-F06C924434A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2018,6 +2992,986 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F0E9-3541-B0DE-9100C46693EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1629362960"/>
+        <c:axId val="-1629366352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-1628912896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1629368896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-1629368896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Requests</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Second</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1628912896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1629366352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>User Load</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1629362960"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-1629362960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-1629366352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Azure Functions - Throughput - January 2018 vs March</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 2018</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Jan 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$D$3:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>84.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115.467</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>127.533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>118.467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191.06700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>192.46700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>153.53299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>179.86699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>254.46700000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>262.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>311.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>307.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>303.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360.93299999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>340.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>357.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>368.4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>335.66699999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2510-D94A-9758-2A0E592D29DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Azure Functions (Mar 18)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$F$3:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>288.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>396.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>377.86700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.733</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>368.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>373.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>371.66699999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>392.86700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>383.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>349.46699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>392.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>382.267</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>316.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>375.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>377.733</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>384.53300000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>378.13299999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>368.46699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2510-D94A-9758-2A0E592D29DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-1628912896"/>
+        <c:axId val="-1629368896"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Throughput!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>User Load</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Throughput!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.7361111111111112E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4722222222222224E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333333E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9444444444444447E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6805555555555562E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0416666666666667E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2152777777777778E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3888888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5625000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7361111111111112E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9097222222222224E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2569444444444442E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.4305555555555552E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6041666666666661E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.777777777777777E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.9513888888888879E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1249999999999989E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2986111111111098E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4722222222222207E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Throughput!$B$3:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2510-D94A-9758-2A0E592D29DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2472,6 +4426,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3504,20 +5538,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>508000</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3537,6 +6603,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBED1438-DFFA-1F40-B85B-476CC4C7735E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3580,6 +6684,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51599AD6-822A-604D-BC3F-8583508535CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3850,11 +6992,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3864,31 +7006,34 @@
     <col min="5" max="5" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -3904,8 +7049,11 @@
       <c r="E3">
         <v>3.5760000000000001</v>
       </c>
+      <c r="F3">
+        <v>0.36299999999999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A9" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -3922,8 +7070,11 @@
       <c r="E4">
         <v>1.5369999999999999</v>
       </c>
+      <c r="F4">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -3940,8 +7091,11 @@
       <c r="E5">
         <v>0.20300000000000001</v>
       </c>
+      <c r="F5">
+        <v>5.6000000000000001E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -3958,8 +7112,11 @@
       <c r="E6">
         <v>0.23300000000000001</v>
       </c>
+      <c r="F6">
+        <v>0.19700000000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -3976,8 +7133,11 @@
       <c r="E7">
         <v>0.125</v>
       </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -3994,8 +7154,11 @@
       <c r="E8">
         <v>0.13200000000000001</v>
       </c>
+      <c r="F8">
+        <v>5.7000000000000002E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4012,8 +7175,11 @@
       <c r="E9">
         <v>0.13</v>
       </c>
+      <c r="F9">
+        <v>4.4999999999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" ref="A10:A20" si="1">TIME(0,0,15)+A9</f>
         <v>1.3888888888888889E-3</v>
@@ -4030,8 +7196,11 @@
       <c r="E10">
         <v>0.121</v>
       </c>
+      <c r="F10">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="1"/>
         <v>1.5625000000000001E-3</v>
@@ -4048,8 +7217,11 @@
       <c r="E11">
         <v>0.14799999999999999</v>
       </c>
+      <c r="F11">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>1.7361111111111112E-3</v>
@@ -4066,8 +7238,11 @@
       <c r="E12">
         <v>0.14199999999999999</v>
       </c>
+      <c r="F12">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>1.9097222222222224E-3</v>
@@ -4084,8 +7259,11 @@
       <c r="E13">
         <v>0.109</v>
       </c>
+      <c r="F13">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333333E-3</v>
@@ -4102,8 +7280,11 @@
       <c r="E14">
         <v>0.14099999999999999</v>
       </c>
+      <c r="F14">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="1"/>
         <v>2.2569444444444442E-3</v>
@@ -4120,8 +7301,11 @@
       <c r="E15">
         <v>0.125</v>
       </c>
+      <c r="F15">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="1"/>
         <v>2.4305555555555552E-3</v>
@@ -4138,8 +7322,11 @@
       <c r="E16">
         <v>0.124</v>
       </c>
+      <c r="F16">
+        <v>3.5000000000000003E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="1"/>
         <v>2.6041666666666661E-3</v>
@@ -4156,8 +7343,11 @@
       <c r="E17">
         <v>0.1</v>
       </c>
+      <c r="F17">
+        <v>4.2000000000000003E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="1"/>
         <v>2.777777777777777E-3</v>
@@ -4174,8 +7364,11 @@
       <c r="E18">
         <v>9.5000000000000001E-2</v>
       </c>
+      <c r="F18">
+        <v>0.22500000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="1"/>
         <v>2.9513888888888879E-3</v>
@@ -4192,8 +7385,11 @@
       <c r="E19">
         <v>0.13800000000000001</v>
       </c>
+      <c r="F19">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="1"/>
         <v>3.1249999999999989E-3</v>
@@ -4210,8 +7406,11 @@
       <c r="E20">
         <v>0.125</v>
       </c>
+      <c r="F20">
+        <v>2.4E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4228,8 +7427,11 @@
       <c r="E21">
         <v>0.11700000000000001</v>
       </c>
+      <c r="F21">
+        <v>4.3999999999999997E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4245,6 +7447,9 @@
       </c>
       <c r="E22">
         <v>0.1</v>
+      </c>
+      <c r="F22">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -4257,11 +7462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4271,31 +7476,34 @@
     <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.7361111111111112E-4</v>
       </c>
@@ -4311,8 +7519,11 @@
       <c r="E3">
         <v>54.133000000000003</v>
       </c>
+      <c r="F3">
+        <v>288.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" ref="A4:A20" si="0">TIME(0,0,15)+A3</f>
         <v>3.4722222222222224E-4</v>
@@ -4329,8 +7540,11 @@
       <c r="E4">
         <v>204.86699999999999</v>
       </c>
+      <c r="F4">
+        <v>396.4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>5.2083333333333333E-4</v>
@@ -4347,8 +7561,11 @@
       <c r="E5">
         <v>304.33300000000003</v>
       </c>
+      <c r="F5">
+        <v>377.86700000000002</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>6.9444444444444447E-4</v>
@@ -4365,8 +7582,11 @@
       <c r="E6">
         <v>329.733</v>
       </c>
+      <c r="F6">
+        <v>329.733</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>8.6805555555555562E-4</v>
@@ -4383,8 +7603,11 @@
       <c r="E7">
         <v>333</v>
       </c>
+      <c r="F7">
+        <v>386.4</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1.0416666666666667E-3</v>
@@ -4401,8 +7624,11 @@
       <c r="E8">
         <v>349.86700000000002</v>
       </c>
+      <c r="F8">
+        <v>368.46699999999998</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1.2152777777777778E-3</v>
@@ -4419,8 +7645,11 @@
       <c r="E9">
         <v>344.13299999999998</v>
       </c>
+      <c r="F9">
+        <v>373.33300000000003</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1.3888888888888889E-3</v>
@@ -4437,8 +7666,11 @@
       <c r="E10">
         <v>336.66699999999997</v>
       </c>
+      <c r="F10">
+        <v>371.66699999999997</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1.5625000000000001E-3</v>
@@ -4455,8 +7687,11 @@
       <c r="E11">
         <v>335.06700000000001</v>
       </c>
+      <c r="F11">
+        <v>392.86700000000002</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1.7361111111111112E-3</v>
@@ -4473,8 +7708,11 @@
       <c r="E12">
         <v>339.46699999999998</v>
       </c>
+      <c r="F12">
+        <v>383.4</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1.9097222222222224E-3</v>
@@ -4491,8 +7729,11 @@
       <c r="E13">
         <v>335.86700000000002</v>
       </c>
+      <c r="F13">
+        <v>349.46699999999998</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>2.0833333333333333E-3</v>
@@ -4509,8 +7750,11 @@
       <c r="E14">
         <v>290.39999999999998</v>
       </c>
+      <c r="F14">
+        <v>388.13299999999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>2.2569444444444442E-3</v>
@@ -4527,8 +7771,11 @@
       <c r="E15">
         <v>343.33300000000003</v>
       </c>
+      <c r="F15">
+        <v>392.4</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>2.4305555555555552E-3</v>
@@ -4545,8 +7792,11 @@
       <c r="E16">
         <v>334.06700000000001</v>
       </c>
+      <c r="F16">
+        <v>382.267</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>2.6041666666666661E-3</v>
@@ -4563,8 +7813,11 @@
       <c r="E17">
         <v>361.53300000000002</v>
       </c>
+      <c r="F17">
+        <v>316.60000000000002</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>2.777777777777777E-3</v>
@@ -4581,8 +7834,11 @@
       <c r="E18">
         <v>357.46699999999998</v>
       </c>
+      <c r="F18">
+        <v>375.13299999999998</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>2.9513888888888879E-3</v>
@@ -4599,8 +7855,11 @@
       <c r="E19">
         <v>334.86700000000002</v>
       </c>
+      <c r="F19">
+        <v>377.733</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>3.1249999999999989E-3</v>
@@ -4617,8 +7876,11 @@
       <c r="E20">
         <v>351.86700000000002</v>
       </c>
+      <c r="F20">
+        <v>384.53300000000002</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f>TIME(0,0,15)+A20</f>
         <v>3.2986111111111098E-3</v>
@@ -4635,8 +7897,11 @@
       <c r="E21">
         <v>346.2</v>
       </c>
+      <c r="F21">
+        <v>378.13299999999998</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f>TIME(0,0,15)+A21</f>
         <v>3.4722222222222207E-3</v>
@@ -4652,6 +7917,9 @@
       </c>
       <c r="E22">
         <v>364.46699999999998</v>
+      </c>
+      <c r="F22">
+        <v>368.46699999999998</v>
       </c>
     </row>
   </sheetData>
